--- a/BONNIE .xlsx
+++ b/BONNIE .xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="380">
   <si>
     <t>NO.</t>
   </si>
@@ -1203,6 +1203,9 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t>SAMUEL KIRAGU</t>
+  </si>
 </sst>
 </file>
 
@@ -38547,7 +38550,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39530,8 +39533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39994,13 +39997,10 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="F19" s="3">
-        <f>1600</f>
-        <v>1600</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3">
         <f>E19-F19</f>
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -40076,11 +40076,11 @@
       </c>
       <c r="F22" s="2">
         <f>SUM(F5:F21)</f>
-        <v>44800</v>
+        <v>43200</v>
       </c>
       <c r="G22" s="2">
         <f>SUM(G5:G21)</f>
-        <v>13020</v>
+        <v>14620</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -40106,7 +40106,7 @@
       <c r="A24" s="12"/>
       <c r="G24">
         <f>G22+G23</f>
-        <v>16520</v>
+        <v>18120</v>
       </c>
       <c r="O24">
         <f>18000+16000</f>
@@ -40173,7 +40173,7 @@
       </c>
       <c r="G27" s="50">
         <f>F22</f>
-        <v>44800</v>
+        <v>43200</v>
       </c>
       <c r="H27" s="56">
         <v>0.1</v>
@@ -40437,7 +40437,7 @@
       <c r="F42" s="57"/>
       <c r="G42" s="63">
         <f>G27+G28-H30</f>
-        <v>23980</v>
+        <v>22380</v>
       </c>
       <c r="H42" s="63">
         <f>SUM(H32:H41)</f>
@@ -40445,7 +40445,7 @@
       </c>
       <c r="I42" s="63">
         <f>G42-H42</f>
-        <v>-29020</v>
+        <v>-30620</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -41717,11 +41717,11 @@
       </c>
       <c r="D19" s="3">
         <f>'SEPT 21'!G19:G38</f>
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="F19" s="3">
         <f>2200</f>
@@ -41729,7 +41729,7 @@
       </c>
       <c r="G19" s="3">
         <f>E19-F19</f>
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -41798,11 +41798,11 @@
       </c>
       <c r="D22" s="3">
         <f>'SEPT 21'!G22:G41</f>
-        <v>13020</v>
+        <v>14620</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E5:E21)</f>
-        <v>58020</v>
+        <v>59620</v>
       </c>
       <c r="F22" s="2">
         <f>SUM(F5:F21)</f>
@@ -41810,7 +41810,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G5:G21)</f>
-        <v>23820</v>
+        <v>25420</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -41836,7 +41836,7 @@
       <c r="A24" s="12"/>
       <c r="G24">
         <f>G22+G23</f>
-        <v>27320</v>
+        <v>28920</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -41920,7 +41920,7 @@
       </c>
       <c r="G28" s="50">
         <f>'SEPT 21'!I42</f>
-        <v>-29020</v>
+        <v>-30620</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
@@ -42156,7 +42156,7 @@
       <c r="F42" s="57"/>
       <c r="G42" s="63">
         <f>G27+G28-H30</f>
-        <v>680</v>
+        <v>-920</v>
       </c>
       <c r="H42" s="63">
         <f>SUM(H32:H41)</f>
@@ -42164,7 +42164,7 @@
       </c>
       <c r="I42" s="63">
         <f>G42-H42</f>
-        <v>-29820</v>
+        <v>-31420</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -42212,7 +42212,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42241,7 +42241,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C3" s="38" t="s">
         <v>373</v>
       </c>
@@ -42668,11 +42668,11 @@
       </c>
       <c r="D19" s="3">
         <f>'OCT 21'!G19:G36</f>
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>4700</v>
+        <v>6300</v>
       </c>
       <c r="F19" s="3">
         <f>400+2000</f>
@@ -42680,7 +42680,7 @@
       </c>
       <c r="G19" s="3">
         <f>E19-F19</f>
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -42747,11 +42747,11 @@
       </c>
       <c r="D22" s="2">
         <f>'OCT 21'!G22:G39</f>
-        <v>23820</v>
+        <v>25420</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E5:E21)</f>
-        <v>63820</v>
+        <v>65420</v>
       </c>
       <c r="F22" s="2">
         <f>SUM(F5:F21)</f>
@@ -42759,7 +42759,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G5:G21)</f>
-        <v>21420</v>
+        <v>23020</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -42785,7 +42785,7 @@
       <c r="A24" s="12"/>
       <c r="G24">
         <f>G22+G23</f>
-        <v>24920</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -42877,7 +42877,7 @@
       </c>
       <c r="G28" s="50">
         <f>'OCT 21'!I42</f>
-        <v>-29820</v>
+        <v>-31420</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
@@ -43129,7 +43129,7 @@
       <c r="F42" s="57"/>
       <c r="G42" s="63">
         <f>G27+G28-H30</f>
-        <v>8330</v>
+        <v>6730</v>
       </c>
       <c r="H42" s="63">
         <f>SUM(H32:H41)</f>
@@ -43137,7 +43137,7 @@
       </c>
       <c r="I42" s="63">
         <f>G42-H42</f>
-        <v>-29482</v>
+        <v>-31082</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -43180,10 +43180,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43191,6 +43191,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43339,10 +43340,12 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>2000</v>
+      </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -43378,23 +43381,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>379</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2500</v>
+      </c>
       <c r="D10" s="3">
         <f>'NOVEMBER 21'!G10:G26</f>
         <v>0</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H10" s="3"/>
+      <c r="I10">
+        <v>762395783</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -43439,10 +43447,12 @@
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>2500</v>
+      </c>
       <c r="G12" s="3">
         <f>E12-F12</f>
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -43464,10 +43474,12 @@
         <f t="shared" si="0"/>
         <v>3420</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>2000</v>
+      </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>3420</v>
+        <v>1420</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -43489,10 +43501,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>2500</v>
+      </c>
       <c r="G14" s="3">
         <f>E14-F14</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -43514,10 +43528,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>3000</v>
+      </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -43546,7 +43562,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -43564,14 +43580,16 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>2500</v>
+      </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -43596,57 +43614,55 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="58">
-        <v>2500</v>
-      </c>
+      <c r="C19" s="58"/>
       <c r="D19" s="3">
         <f>'NOVEMBER 21'!G19:G35</f>
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <f>E19-F19</f>
-        <v>4800</v>
+        <v>3900</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C20" s="3">
-        <v>2500</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3">
         <f>'NOVEMBER 21'!G20:G36</f>
         <v>6000</v>
       </c>
       <c r="E20" s="3">
         <f>C20+D20</f>
-        <v>8500</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>6000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1800</v>
+      </c>
       <c r="G20" s="3">
         <f>E20-F20</f>
-        <v>8500</v>
+        <v>4200</v>
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -43664,42 +43680,44 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>2500</v>
+      </c>
       <c r="G21" s="3">
         <f>E21-F21</f>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H21" s="58"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
         <f>SUM(C5:C21)</f>
-        <v>42500</v>
+        <v>40000</v>
       </c>
       <c r="D22" s="2">
-        <f>'OCT 21'!G22:G39</f>
-        <v>23820</v>
+        <f>SUM(D5:D21)</f>
+        <v>23020</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E5:E21)</f>
-        <v>63920</v>
+        <v>63020</v>
       </c>
       <c r="F22" s="2">
         <f>SUM(F5:F21)</f>
-        <v>10500</v>
+        <v>29300</v>
       </c>
       <c r="G22" s="2">
         <f>SUM(G5:G21)</f>
-        <v>53420</v>
+        <v>33720</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="27" t="s">
         <v>346</v>
@@ -43716,14 +43734,14 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="G24">
         <f>G22+G23</f>
-        <v>56920</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>37220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="51" t="s">
         <v>27</v>
@@ -43736,7 +43754,7 @@
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="54" t="s">
         <v>28</v>
@@ -43763,14 +43781,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="55" t="s">
         <v>103</v>
       </c>
       <c r="C27" s="50">
         <f>C22</f>
-        <v>42500</v>
+        <v>40000</v>
       </c>
       <c r="D27" s="56">
         <v>0.1</v>
@@ -43781,14 +43799,14 @@
       </c>
       <c r="G27" s="50">
         <f>F22</f>
-        <v>10500</v>
+        <v>29300</v>
       </c>
       <c r="H27" s="56">
         <v>0.1</v>
       </c>
       <c r="I27" s="58"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="58" t="s">
         <v>55</v>
@@ -43804,12 +43822,12 @@
       </c>
       <c r="G28" s="50">
         <f>'NOVEMBER 21'!I42</f>
-        <v>-29482</v>
+        <v>-31082</v>
       </c>
       <c r="H28" s="58"/>
       <c r="I28" s="58"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="58"/>
       <c r="C29" s="50"/>
@@ -43819,8 +43837,12 @@
       <c r="G29" s="50"/>
       <c r="H29" s="58"/>
       <c r="I29" s="58"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L29" s="43">
+        <f>C27</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="58" t="s">
         <v>33</v>
@@ -43828,7 +43850,7 @@
       <c r="C30" s="59"/>
       <c r="D30" s="58">
         <f>C27*D27</f>
-        <v>4250</v>
+        <v>4000</v>
       </c>
       <c r="E30" s="58"/>
       <c r="F30" s="58" t="s">
@@ -43837,11 +43859,15 @@
       <c r="G30" s="59"/>
       <c r="H30" s="58">
         <f>H27*C27</f>
-        <v>4250</v>
+        <v>4000</v>
       </c>
       <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f>D30</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="60" t="s">
         <v>34</v>
@@ -43855,8 +43881,12 @@
       <c r="G31" s="58"/>
       <c r="H31" s="58"/>
       <c r="I31" s="58"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L31" s="43">
+        <f>L29-L30</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>161</v>
@@ -43870,19 +43900,37 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="58"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="43">
+        <f>-C28</f>
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="62"/>
+      <c r="B33" s="62" t="s">
+        <v>311</v>
+      </c>
       <c r="C33" s="58"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <f>18000+13438</f>
+        <v>31438</v>
+      </c>
       <c r="E33" s="58"/>
-      <c r="F33" s="62"/>
+      <c r="F33" s="62" t="s">
+        <v>311</v>
+      </c>
       <c r="G33" s="58"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <f>18000+13438</f>
+        <v>31438</v>
+      </c>
       <c r="I33" s="58"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33" s="43">
+        <f>L31-L32</f>
+        <v>31438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="62"/>
       <c r="D34" s="3"/>
@@ -43891,7 +43939,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="58"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="62"/>
       <c r="C35" s="50"/>
@@ -43902,7 +43950,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="58"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="62"/>
       <c r="C36" s="50"/>
@@ -43913,7 +43961,7 @@
       <c r="H36" s="50"/>
       <c r="I36" s="58"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="62"/>
       <c r="C37" s="50"/>
@@ -43924,7 +43972,7 @@
       <c r="H37" s="50"/>
       <c r="I37" s="58"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="62"/>
       <c r="C38" s="50"/>
@@ -43935,7 +43983,7 @@
       <c r="H38" s="50"/>
       <c r="I38" s="58"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="62"/>
       <c r="C39" s="50"/>
@@ -43946,7 +43994,7 @@
       <c r="H39" s="50"/>
       <c r="I39" s="58"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="62"/>
       <c r="C40" s="50"/>
@@ -43957,7 +44005,7 @@
       <c r="H40" s="50"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="62"/>
       <c r="C41" s="50"/>
@@ -43968,38 +44016,38 @@
       <c r="H41" s="50"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="55" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="63">
         <f>C27+C28+C29-D30</f>
-        <v>33688</v>
+        <v>31438</v>
       </c>
       <c r="D42" s="55">
         <f>SUM(D32:D41)</f>
-        <v>0</v>
+        <v>31438</v>
       </c>
       <c r="E42" s="63">
         <f>C42-D42</f>
-        <v>33688</v>
+        <v>0</v>
       </c>
       <c r="F42" s="57"/>
       <c r="G42" s="63">
         <f>G27+G28-H30</f>
-        <v>-23232</v>
+        <v>-5782</v>
       </c>
       <c r="H42" s="63">
         <f>SUM(H32:H41)</f>
-        <v>0</v>
+        <v>31438</v>
       </c>
       <c r="I42" s="63">
         <f>G42-H42</f>
-        <v>-23232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-37220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>38</v>
       </c>
@@ -44012,7 +44060,7 @@
       </c>
       <c r="I45" s="43"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>163</v>
       </c>
